--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2010 (P10).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2010 (P10).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,280 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bituminous Blast</t>
+          <t>('Bituminous Blast', ['{3}{B}{R}', 'Instant', 'Cascade (When you cast this spell, exile cards from the top of your library until you exile a nonland card that costs less. You may cast it without paying its mana cost. Put the exiled cards on the bottom of your library in a random order.)', 'Bituminous Blast deals 4 damage to target creature.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{B}{R}</t>
+          <t>('Burst Lightning', ['{R}', 'Instant', 'Kicker {4} (You may pay an additional {4} as you cast this spell.)', 'Burst Lightning deals 2 damage to any target. If this spell was kicked, it deals 4 damage instead.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Cancel', ['{1}{U}{U}', 'Instant', 'Counter target spell.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cascade (When you cast this spell, exile cards from the top of your library until you exile a nonland card that costs less. You may cast it without paying its mana cost. Put the exiled cards on the bottom of your library in a random order.)</t>
+          <t>('Celestial Purge', ['{1}{W}', 'Instant', 'Exile target black or red permanent.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bituminous Blast deals 4 damage to target creature.</t>
+          <t>('Harrow', ['{2}{G}', 'Instant', 'As an additional cost to cast this spell, sacrifice a land.', 'Search your library for up to two basic land cards, put them onto the battlefield, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Burst Lightning</t>
+          <t>('Infest', ['{1}{B}{B}', 'Sorcery', 'All creatures get -2/-2 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{R}</t>
+          <t>('Lightning Bolt', ['{R}', 'Instant', 'Lightning Bolt deals 3 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Sign in Blood', ['{B}{B}', 'Sorcery', 'Target player draws two cards and loses 2 life.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kicker {4} (You may pay an additional {4} as you cast this spell.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Burst Lightning deals 2 damage to any target. If this spell was kicked, it deals 4 damage instead.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Cancel</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{1}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Counter target spell.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Celestial Purge</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Exile target black or red permanent.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Harrow</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>As an additional cost to cast this spell, sacrifice a land.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Search your library for up to two basic land cards, put them onto the battlefield, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Infest</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>{1}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>All creatures get -2/-2 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Lightning Bolt</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Lightning Bolt deals 3 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Sign in Blood</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Target player draws two cards and loses 2 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Volcanic Fallout</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>{1}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>This spell can’t be countered.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Volcanic Fallout deals 2 damage to each creature and each player.</t>
+          <t>('Volcanic Fallout', ['{1}{R}{R}', 'Instant', 'This spell can’t be countered.', 'Volcanic Fallout deals 2 damage to each creature and each player.'])</t>
         </is>
       </c>
     </row>
